--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CB905-9CA8-470F-9281-CD0EE88590A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999545F-07EF-4682-AEA0-222DE5C14E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-Victoria-13-October-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-14-October-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-16-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-17-october-2020</t>
   </si>
 </sst>
 </file>
@@ -352,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E20" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -665,78 +674,78 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44114</v>
+        <v>44118</v>
       </c>
       <c r="B2" s="1">
-        <v>3025</v>
+        <v>3128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44118</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B3" s="1">
-        <v>3024</v>
+        <v>3047</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B4" s="1">
-        <v>3184</v>
+        <v>3977</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B5" s="1">
-        <v>3015</v>
+        <v>3173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -744,7 +753,7 @@
         <v>44114</v>
       </c>
       <c r="B6" s="1">
-        <v>3073</v>
+        <v>3025</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -763,7 +772,7 @@
         <v>44114</v>
       </c>
       <c r="B7" s="1">
-        <v>3130</v>
+        <v>3024</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -782,7 +791,7 @@
         <v>44114</v>
       </c>
       <c r="B8" s="1">
-        <v>3027</v>
+        <v>3184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -801,16 +810,16 @@
         <v>44114</v>
       </c>
       <c r="B9" s="1">
-        <v>3147</v>
+        <v>3015</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -820,140 +829,219 @@
         <v>44114</v>
       </c>
       <c r="B10" s="1">
-        <v>3037</v>
+        <v>3073</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B11" s="1">
-        <v>3175</v>
+        <v>3130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E11" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B12" s="1">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E12" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
-        <v>44109</v>
+        <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3046</v>
+        <v>3147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E13" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E13" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B14">
-        <v>3145</v>
+        <v>44114</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3037</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E14" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E14" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B15">
-        <v>3023</v>
+        <v>44112</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E15" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E15" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3025</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E16" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A17" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3046</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E17" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A18" s="2">
         <v>44108</v>
       </c>
-      <c r="B16">
+      <c r="B18">
+        <v>3145</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E18" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A19" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B19">
+        <v>3023</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E19" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A20" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B20">
         <v>3019</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D20" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E20" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999545F-07EF-4682-AEA0-222DE5C14E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39123004-DBF9-460D-967D-43DA009C86EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-17-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-for-victoria-sunday-18-october-2020</t>
   </si>
 </sst>
 </file>
@@ -361,8 +364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E20" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E21" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -674,40 +677,40 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B2" s="1">
-        <v>3128</v>
+        <v>3081</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B3" s="1">
-        <v>3047</v>
+        <v>3128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
@@ -715,7 +718,7 @@
         <v>44117</v>
       </c>
       <c r="B4" s="1">
-        <v>3977</v>
+        <v>3047</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -731,40 +734,40 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B5" s="1">
-        <v>3173</v>
+        <v>3977</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B6" s="1">
-        <v>3025</v>
+        <v>3173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
@@ -772,7 +775,7 @@
         <v>44114</v>
       </c>
       <c r="B7" s="1">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -791,7 +794,7 @@
         <v>44114</v>
       </c>
       <c r="B8" s="1">
-        <v>3184</v>
+        <v>3024</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -810,7 +813,7 @@
         <v>44114</v>
       </c>
       <c r="B9" s="1">
-        <v>3015</v>
+        <v>3184</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -829,7 +832,7 @@
         <v>44114</v>
       </c>
       <c r="B10" s="1">
-        <v>3073</v>
+        <v>3015</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -848,7 +851,7 @@
         <v>44114</v>
       </c>
       <c r="B11" s="1">
-        <v>3130</v>
+        <v>3073</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -867,7 +870,7 @@
         <v>44114</v>
       </c>
       <c r="B12" s="1">
-        <v>3027</v>
+        <v>3130</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -886,16 +889,16 @@
         <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3147</v>
+        <v>3027</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E13" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -905,37 +908,37 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3037</v>
+        <v>3147</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E14" s="5">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3175</v>
+        <v>3037</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="E15" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
@@ -943,7 +946,7 @@
         <v>44112</v>
       </c>
       <c r="B16" s="1">
-        <v>3025</v>
+        <v>3175</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -959,40 +962,40 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
-        <v>44109</v>
+        <v>44112</v>
       </c>
       <c r="B17" s="1">
-        <v>3046</v>
+        <v>3025</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E17" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E17" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B18">
-        <v>3145</v>
+        <v>44109</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3046</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E18" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+      <c r="D18" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E18" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
@@ -1000,10 +1003,10 @@
         <v>44108</v>
       </c>
       <c r="B19">
-        <v>3023</v>
+        <v>3145</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
@@ -1019,16 +1022,35 @@
         <v>44108</v>
       </c>
       <c r="B20">
+        <v>3023</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E20" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A21" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B21">
         <v>3019</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1036,7 +1058,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39123004-DBF9-460D-967D-43DA009C86EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023C5808-0395-4158-BA7C-739B36D8FF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-for-victoria-sunday-18-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-19-october-2020</t>
   </si>
 </sst>
 </file>
@@ -364,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E21" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E22" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -677,59 +680,59 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B2" s="1">
-        <v>3081</v>
+        <v>3152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B3" s="1">
-        <v>3128</v>
+        <v>3081</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B4" s="1">
-        <v>3047</v>
+        <v>3128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
@@ -737,7 +740,7 @@
         <v>44117</v>
       </c>
       <c r="B5" s="1">
-        <v>3977</v>
+        <v>3047</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -753,40 +756,40 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B6" s="1">
-        <v>3173</v>
+        <v>3977</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B7" s="1">
-        <v>3025</v>
+        <v>3173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
@@ -794,7 +797,7 @@
         <v>44114</v>
       </c>
       <c r="B8" s="1">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -813,7 +816,7 @@
         <v>44114</v>
       </c>
       <c r="B9" s="1">
-        <v>3184</v>
+        <v>3024</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -832,7 +835,7 @@
         <v>44114</v>
       </c>
       <c r="B10" s="1">
-        <v>3015</v>
+        <v>3184</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -851,7 +854,7 @@
         <v>44114</v>
       </c>
       <c r="B11" s="1">
-        <v>3073</v>
+        <v>3015</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -870,7 +873,7 @@
         <v>44114</v>
       </c>
       <c r="B12" s="1">
-        <v>3130</v>
+        <v>3073</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -889,7 +892,7 @@
         <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3027</v>
+        <v>3130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -908,16 +911,16 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3147</v>
+        <v>3027</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E14" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -927,37 +930,37 @@
         <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3037</v>
+        <v>3147</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E15" s="5">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B16" s="1">
-        <v>3175</v>
+        <v>3037</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="E16" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
@@ -965,7 +968,7 @@
         <v>44112</v>
       </c>
       <c r="B17" s="1">
-        <v>3025</v>
+        <v>3175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -981,40 +984,40 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
-        <v>44109</v>
+        <v>44112</v>
       </c>
       <c r="B18" s="1">
-        <v>3046</v>
+        <v>3025</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E18" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E18" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B19">
-        <v>3145</v>
+        <v>44109</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3046</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E19" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+      <c r="D19" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E19" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
@@ -1022,10 +1025,10 @@
         <v>44108</v>
       </c>
       <c r="B20">
-        <v>3023</v>
+        <v>3145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
@@ -1041,16 +1044,35 @@
         <v>44108</v>
       </c>
       <c r="B21">
+        <v>3023</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E21" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A22" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B22">
         <v>3019</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1058,7 +1080,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023C5808-0395-4158-BA7C-739B36D8FF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DDB00-7DC5-4BD0-B72A-A687880FE190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-19-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-24-october-2020</t>
   </si>
 </sst>
 </file>
@@ -367,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E22" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E23" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -680,78 +683,78 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44120</v>
+        <v>44125</v>
       </c>
       <c r="B2" s="1">
-        <v>3152</v>
+        <v>3029</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44120</v>
+        <v>44125</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44134</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B3" s="1">
-        <v>3081</v>
+        <v>3152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44133</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B4" s="1">
-        <v>3128</v>
+        <v>3081</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B5" s="1">
-        <v>3047</v>
+        <v>3128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -759,7 +762,7 @@
         <v>44117</v>
       </c>
       <c r="B6" s="1">
-        <v>3977</v>
+        <v>3047</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -775,40 +778,40 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B7" s="1">
-        <v>3173</v>
+        <v>3977</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B8" s="1">
-        <v>3025</v>
+        <v>3173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
@@ -816,7 +819,7 @@
         <v>44114</v>
       </c>
       <c r="B9" s="1">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -835,7 +838,7 @@
         <v>44114</v>
       </c>
       <c r="B10" s="1">
-        <v>3184</v>
+        <v>3024</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -854,7 +857,7 @@
         <v>44114</v>
       </c>
       <c r="B11" s="1">
-        <v>3015</v>
+        <v>3184</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -873,7 +876,7 @@
         <v>44114</v>
       </c>
       <c r="B12" s="1">
-        <v>3073</v>
+        <v>3015</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -892,7 +895,7 @@
         <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3130</v>
+        <v>3073</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -911,7 +914,7 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3027</v>
+        <v>3130</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -930,16 +933,16 @@
         <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3147</v>
+        <v>3027</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E15" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -949,37 +952,37 @@
         <v>44114</v>
       </c>
       <c r="B16" s="1">
-        <v>3037</v>
+        <v>3147</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E16" s="5">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B17" s="1">
-        <v>3175</v>
+        <v>3037</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="E17" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
@@ -987,7 +990,7 @@
         <v>44112</v>
       </c>
       <c r="B18" s="1">
-        <v>3025</v>
+        <v>3175</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1003,40 +1006,40 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
-        <v>44109</v>
+        <v>44112</v>
       </c>
       <c r="B19" s="1">
-        <v>3046</v>
+        <v>3025</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E19" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E19" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B20">
-        <v>3145</v>
+        <v>44109</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3046</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E20" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+      <c r="D20" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E20" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
@@ -1044,10 +1047,10 @@
         <v>44108</v>
       </c>
       <c r="B21">
-        <v>3023</v>
+        <v>3145</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
@@ -1063,16 +1066,35 @@
         <v>44108</v>
       </c>
       <c r="B22">
+        <v>3023</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E22" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A23" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B23">
         <v>3019</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1080,7 +1102,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DDB00-7DC5-4BD0-B72A-A687880FE190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286144E-629A-470A-8FDA-FD16F8F15E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-24-october-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-for-victoria-29-October-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-3-november-2020</t>
   </si>
 </sst>
 </file>
@@ -370,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E23" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E25" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -683,173 +689,173 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44125</v>
+        <v>44134</v>
       </c>
       <c r="B2" s="1">
-        <v>3029</v>
+        <v>3023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44125</v>
+        <v>44134</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44139</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44120</v>
+        <v>44130</v>
       </c>
       <c r="B3" s="1">
-        <v>3152</v>
+        <v>3081</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44120</v>
+        <v>44130</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44134</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44119</v>
+        <v>44125</v>
       </c>
       <c r="B4" s="1">
-        <v>3081</v>
+        <v>3029</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44119</v>
+        <v>44125</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44133</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="B5" s="1">
-        <v>3128</v>
+        <v>3152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="B6" s="1">
-        <v>3047</v>
+        <v>3081</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B7" s="1">
-        <v>3977</v>
+        <v>3128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="B8" s="1">
-        <v>3173</v>
+        <v>3047</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44117</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B9" s="1">
-        <v>3025</v>
+        <v>3977</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B10" s="1">
-        <v>3024</v>
+        <v>3173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -857,7 +863,7 @@
         <v>44114</v>
       </c>
       <c r="B11" s="1">
-        <v>3184</v>
+        <v>3025</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -876,7 +882,7 @@
         <v>44114</v>
       </c>
       <c r="B12" s="1">
-        <v>3015</v>
+        <v>3024</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -895,7 +901,7 @@
         <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3073</v>
+        <v>3184</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -914,7 +920,7 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3130</v>
+        <v>3015</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -933,7 +939,7 @@
         <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3027</v>
+        <v>3073</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -952,16 +958,16 @@
         <v>44114</v>
       </c>
       <c r="B16" s="1">
-        <v>3147</v>
+        <v>3130</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E16" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -971,113 +977,113 @@
         <v>44114</v>
       </c>
       <c r="B17" s="1">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E17" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B18" s="1">
-        <v>3175</v>
+        <v>3147</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E18" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E18" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B19" s="1">
-        <v>3025</v>
+        <v>3037</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="E19" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
-        <v>44109</v>
+        <v>44112</v>
       </c>
       <c r="B20" s="1">
-        <v>3046</v>
+        <v>3175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E20" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E20" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B21">
-        <v>3145</v>
+        <v>44112</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3025</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E21" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E21" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B22">
-        <v>3023</v>
+        <v>44109</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3046</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E22" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E22" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
@@ -1085,16 +1091,54 @@
         <v>44108</v>
       </c>
       <c r="B23">
+        <v>3145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E23" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A24" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B24">
+        <v>3023</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E24" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A25" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B25">
         <v>3019</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E25" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1102,7 +1146,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286144E-629A-470A-8FDA-FD16F8F15E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAAF61B-78F6-42BF-8555-5962F40B9A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-3-november-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/victoria-records-three-new-community-coronavirus-cases-30-december-2020</t>
   </si>
 </sst>
 </file>
@@ -376,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E25" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E28" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -689,230 +692,230 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44134</v>
+        <v>44195</v>
       </c>
       <c r="B2" s="1">
-        <v>3023</v>
+        <v>3132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44134</v>
+        <v>44195</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44148</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44130</v>
+        <v>44195</v>
       </c>
       <c r="B3" s="1">
-        <v>3081</v>
+        <v>3803</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44130</v>
+        <v>44195</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44144</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44125</v>
+        <v>44192</v>
       </c>
       <c r="B4" s="1">
-        <v>3029</v>
+        <v>3194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44125</v>
+        <v>44192</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44139</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44120</v>
+        <v>44134</v>
       </c>
       <c r="B5" s="1">
-        <v>3152</v>
+        <v>3023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44120</v>
+        <v>44134</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44134</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>44119</v>
+        <v>44130</v>
       </c>
       <c r="B6" s="1">
         <v>3081</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44119</v>
+        <v>44130</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44133</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="B7" s="1">
-        <v>3128</v>
+        <v>3029</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>44117</v>
+        <v>44120</v>
       </c>
       <c r="B8" s="1">
-        <v>3047</v>
+        <v>3152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44120</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="B9" s="1">
-        <v>3977</v>
+        <v>3081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
-        <v>44115</v>
+        <v>44118</v>
       </c>
       <c r="B10" s="1">
-        <v>3173</v>
+        <v>3128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44118</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B11" s="1">
-        <v>3025</v>
+        <v>3047</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="B12" s="1">
-        <v>3024</v>
+        <v>3977</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B13" s="1">
-        <v>3184</v>
+        <v>3173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
@@ -920,7 +923,7 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3015</v>
+        <v>3025</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -939,7 +942,7 @@
         <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3073</v>
+        <v>3024</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -958,7 +961,7 @@
         <v>44114</v>
       </c>
       <c r="B16" s="1">
-        <v>3130</v>
+        <v>3184</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -977,7 +980,7 @@
         <v>44114</v>
       </c>
       <c r="B17" s="1">
-        <v>3027</v>
+        <v>3015</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -996,16 +999,16 @@
         <v>44114</v>
       </c>
       <c r="B18" s="1">
-        <v>3147</v>
+        <v>3073</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E18" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -1015,130 +1018,187 @@
         <v>44114</v>
       </c>
       <c r="B19" s="1">
-        <v>3037</v>
+        <v>3130</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E19" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B20" s="1">
-        <v>3175</v>
+        <v>3027</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E20" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E20" s="2">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
-        <v>44112</v>
+        <v>44114</v>
       </c>
       <c r="B21" s="1">
-        <v>3025</v>
+        <v>3147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E21" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E21" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
-        <v>44109</v>
+        <v>44114</v>
       </c>
       <c r="B22" s="1">
-        <v>3046</v>
+        <v>3037</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E22" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E22" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B23">
-        <v>3145</v>
+        <v>44112</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3175</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E23" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E23" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B24">
-        <v>3023</v>
+        <v>44112</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3025</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E24" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44112</v>
+      </c>
+      <c r="E24" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3046</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E25" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A26" s="2">
         <v>44108</v>
       </c>
-      <c r="B25">
+      <c r="B26">
+        <v>3145</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E26" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A27" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B27">
+        <v>3023</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E27" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A28" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B28">
         <v>3019</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D28" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E28" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1146,7 +1206,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAAF61B-78F6-42BF-8555-5962F40B9A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B39FC9-C7AA-4309-9E5F-CECCC27F49EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC mystery cases" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B2" s="1">
         <v>3132</v>
@@ -702,16 +702,16 @@
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44209</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="B3" s="1">
         <v>3803</v>
@@ -721,16 +721,16 @@
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44209</v>
+        <v>44205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44192</v>
+        <v>44186</v>
       </c>
       <c r="B4" s="1">
         <v>3194</v>
@@ -740,11 +740,11 @@
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44192</v>
+        <v>44186</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44206</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">

--- a/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Mystery Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B39FC9-C7AA-4309-9E5F-CECCC27F49EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8B48F-D613-4D50-94E9-AD0552D53A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -379,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E28" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_Mystery_cases" displayName="VIC_Mystery_cases" ref="A1:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E27" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Postcode" dataDxfId="3"/>
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="B2" s="1">
         <v>3132</v>
@@ -702,163 +702,163 @@
       </c>
       <c r="D2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44207</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
-        <v>44191</v>
+        <v>44186</v>
       </c>
       <c r="B3" s="1">
-        <v>3803</v>
+        <v>3194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44191</v>
+        <v>44186</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44205</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>44186</v>
+        <v>44134</v>
       </c>
       <c r="B4" s="1">
-        <v>3194</v>
+        <v>3023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44186</v>
+        <v>44134</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44200</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>44134</v>
+        <v>44130</v>
       </c>
       <c r="B5" s="1">
-        <v>3023</v>
+        <v>3081</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44134</v>
+        <v>44130</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44148</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>44130</v>
+        <v>44125</v>
       </c>
       <c r="B6" s="1">
-        <v>3081</v>
+        <v>3029</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44130</v>
+        <v>44125</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44144</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>44125</v>
+        <v>44120</v>
       </c>
       <c r="B7" s="1">
-        <v>3029</v>
+        <v>3152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44125</v>
+        <v>44120</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44139</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B8" s="1">
-        <v>3152</v>
+        <v>3081</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44134</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B9" s="1">
-        <v>3081</v>
+        <v>3128</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44133</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B10" s="1">
-        <v>3128</v>
+        <v>3047</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44132</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -866,7 +866,7 @@
         <v>44117</v>
       </c>
       <c r="B11" s="1">
-        <v>3047</v>
+        <v>3977</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -882,40 +882,40 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B12" s="1">
-        <v>3977</v>
+        <v>3173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44131</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B13" s="1">
-        <v>3173</v>
+        <v>3025</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44129</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
@@ -923,7 +923,7 @@
         <v>44114</v>
       </c>
       <c r="B14" s="1">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -942,7 +942,7 @@
         <v>44114</v>
       </c>
       <c r="B15" s="1">
-        <v>3024</v>
+        <v>3184</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -961,7 +961,7 @@
         <v>44114</v>
       </c>
       <c r="B16" s="1">
-        <v>3184</v>
+        <v>3015</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>44114</v>
       </c>
       <c r="B17" s="1">
-        <v>3015</v>
+        <v>3073</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -999,7 +999,7 @@
         <v>44114</v>
       </c>
       <c r="B18" s="1">
-        <v>3073</v>
+        <v>3130</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         <v>44114</v>
       </c>
       <c r="B19" s="1">
-        <v>3130</v>
+        <v>3027</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1037,16 +1037,16 @@
         <v>44114</v>
       </c>
       <c r="B20" s="1">
-        <v>3027</v>
+        <v>3147</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="5">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E20" s="5">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
@@ -1056,37 +1056,37 @@
         <v>44114</v>
       </c>
       <c r="B21" s="1">
-        <v>3147</v>
+        <v>3037</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="4">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44114</v>
+      </c>
+      <c r="E21" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B22" s="1">
-        <v>3037</v>
+        <v>3175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="E22" s="4">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44128</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
@@ -1094,7 +1094,7 @@
         <v>44112</v>
       </c>
       <c r="B23" s="1">
-        <v>3175</v>
+        <v>3025</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1110,40 +1110,40 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="2">
-        <v>44112</v>
+        <v>44109</v>
       </c>
       <c r="B24" s="1">
-        <v>3025</v>
+        <v>3046</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44112</v>
-      </c>
-      <c r="E24" s="4">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44126</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44109</v>
+      </c>
+      <c r="E24" s="7">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44123</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3046</v>
+        <v>44108</v>
+      </c>
+      <c r="B25">
+        <v>3145</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44109</v>
-      </c>
-      <c r="E25" s="7">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44123</v>
+      <c r="D25" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
+        <v>44108</v>
+      </c>
+      <c r="E25" s="6">
+        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
+        <v>44122</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
@@ -1151,10 +1151,10 @@
         <v>44108</v>
       </c>
       <c r="B26">
-        <v>3145</v>
+        <v>3023</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
@@ -1170,35 +1170,16 @@
         <v>44108</v>
       </c>
       <c r="B27">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
         <v>44108</v>
       </c>
       <c r="E27" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A28" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B28">
-        <v>3019</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6">
-        <f>VIC_Mystery_cases[[#This Row],[Date]]</f>
-        <v>44108</v>
-      </c>
-      <c r="E28" s="6">
         <f>VIC_Mystery_cases[[#This Row],[Date]]+14</f>
         <v>44122</v>
       </c>
@@ -1206,7 +1187,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{CCF80946-AF6B-439E-83D3-C73D396AD049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
